--- a/back_end/python_script/excel/template01.xlsx
+++ b/back_end/python_script/excel/template01.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BEB2F7-E34E-43D5-B11D-AB62C725B24E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DD363E-5DF1-48B2-A528-A060217FA10B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,12 +1196,9 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1407,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1434,69 +1431,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1525,6 +1462,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1545,6 +1512,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1831,10 +1801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:AF21"/>
+  <dimension ref="B2:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.25"/>
@@ -1851,83 +1821,83 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" ht="18.75">
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="4" spans="2:32">
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
       <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="2:32">
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
       <c r="H5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
       <c r="L5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="2:32">
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
       <c r="H6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
       <c r="L6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="2:32">
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="H7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="2:32">
       <c r="D8" s="5"/>
@@ -1939,474 +1909,477 @@
     </row>
     <row r="9" spans="2:32" ht="15" thickBot="1"/>
     <row r="10" spans="2:32" s="7" customFormat="1" ht="14.45" customHeight="1">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="42" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="42" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="42" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="45" t="s">
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="43"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="33"/>
     </row>
     <row r="11" spans="2:32" s="4" customFormat="1" ht="84.75" thickBot="1">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="30" t="s">
+      <c r="N11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="38" t="s">
+      <c r="O11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="39" t="s">
+      <c r="P11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="39" t="s">
+      <c r="Q11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="39" t="s">
+      <c r="R11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="T11" s="30" t="s">
+      <c r="T11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="U11" s="39" t="s">
+      <c r="U11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="V11" s="39" t="s">
+      <c r="V11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="W11" s="39" t="s">
+      <c r="W11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="X11" s="39" t="s">
+      <c r="X11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Y11" s="39" t="s">
+      <c r="Y11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Z11" s="39" t="s">
+      <c r="Z11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AA11" s="39" t="s">
+      <c r="AA11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AB11" s="38" t="s">
+      <c r="AB11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AC11" s="39" t="s">
+      <c r="AC11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AD11" s="39" t="s">
+      <c r="AD11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AE11" s="39" t="s">
+      <c r="AE11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AF11" s="31" t="s">
+      <c r="AF11" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:32" s="4" customFormat="1">
-      <c r="B12" s="24"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="23"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="22"/>
     </row>
-    <row r="13" spans="2:32" s="15" customFormat="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="12"/>
+    <row r="13" spans="2:32" s="9" customFormat="1">
+      <c r="B13" s="21"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="24"/>
     </row>
-    <row r="14" spans="2:32" s="15" customFormat="1">
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="12"/>
+    <row r="14" spans="2:32" s="9" customFormat="1">
+      <c r="B14" s="21"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="24"/>
     </row>
-    <row r="15" spans="2:32" s="15" customFormat="1">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="12"/>
+    <row r="15" spans="2:32" s="9" customFormat="1">
+      <c r="B15" s="21"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="24"/>
     </row>
-    <row r="16" spans="2:32" s="15" customFormat="1">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="12"/>
+    <row r="16" spans="2:32" s="9" customFormat="1">
+      <c r="B16" s="21"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="24"/>
     </row>
-    <row r="17" spans="2:32" s="15" customFormat="1">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="12"/>
+    <row r="17" spans="2:32" s="9" customFormat="1">
+      <c r="B17" s="21"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="24"/>
     </row>
-    <row r="18" spans="2:32" s="15" customFormat="1">
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="12"/>
+    <row r="18" spans="2:32" s="9" customFormat="1">
+      <c r="B18" s="21"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="24"/>
     </row>
-    <row r="19" spans="2:32" s="15" customFormat="1">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="12"/>
+    <row r="19" spans="2:32" s="9" customFormat="1">
+      <c r="B19" s="21"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="24"/>
     </row>
-    <row r="20" spans="2:32" s="15" customFormat="1">
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="12"/>
+    <row r="20" spans="2:32" s="9" customFormat="1">
+      <c r="B20" s="21"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="24"/>
     </row>
     <row r="21" spans="2:32" s="2" customFormat="1" ht="15" thickBot="1">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="18"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="28"/>
+    </row>
+    <row r="22" spans="2:32">
+      <c r="D22" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="18">
